--- a/docs/ZSWatch.xlsx
+++ b/docs/ZSWatch.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DFAB71-1AB9-452A-B956-D3F1B69E110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276838D-A655-419B-8391-ACA671411726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="3585" windowWidth="22140" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -768,16 +768,7 @@
     <t>BATTERY</t>
   </si>
   <si>
-    <t>Molex:2121340002</t>
-  </si>
-  <si>
     <t>Molex</t>
-  </si>
-  <si>
-    <t>212134-0002</t>
-  </si>
-  <si>
-    <t>538-212134-0002</t>
   </si>
   <si>
     <t>GC9A01A_CST816S</t>
@@ -953,6 +944,15 @@
   </si>
   <si>
     <t>Battery</t>
+  </si>
+  <si>
+    <t>Molex:78171-0002</t>
+  </si>
+  <si>
+    <t>78171-0002</t>
+  </si>
+  <si>
+    <t>538-78171-0002</t>
   </si>
 </sst>
 </file>
@@ -1233,6 +1233,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1241,12 +1247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1579,10 +1579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.6" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
       <c r="E1" s="15"/>
@@ -1591,38 +1591,38 @@
       <c r="H1" s="11"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="15">
+      <c r="A2" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="15">
+      <c r="A3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="34"/>
       <c r="C3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45159</v>
+        <v>45188</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A4" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="33"/>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15">
+      <c r="A4" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="35"/>
       <c r="C4" s="17" t="s">
         <v>45</v>
       </c>
@@ -1631,13 +1631,13 @@
       <c r="F4" s="17"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="33"/>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="15">
+      <c r="A5" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="35"/>
       <c r="C5" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1720,7 +1720,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1755,7 +1755,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1790,7 +1790,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="38.25">
@@ -1825,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1860,7 +1860,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1895,7 +1895,7 @@
         <v>24</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1930,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1965,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2000,7 +2000,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2035,7 +2035,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2070,7 +2070,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2105,7 +2105,7 @@
         <v>24</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2140,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2175,7 +2175,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2210,7 +2210,7 @@
         <v>24</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2245,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2280,7 +2280,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2315,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2350,7 +2350,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2385,7 +2385,7 @@
         <v>24</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2420,7 +2420,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2455,7 +2455,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="15">
@@ -2490,7 +2490,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2525,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="14.25" customHeight="1">
@@ -2560,7 +2560,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2595,7 +2595,7 @@
         <v>24</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2630,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2665,7 +2665,7 @@
         <v>24</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2700,7 +2700,7 @@
         <v>24</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -2735,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2784,19 +2784,19 @@
         <v>198</v>
       </c>
       <c r="D39" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>200</v>
-      </c>
       <c r="F39" s="20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>25</v>
@@ -2805,7 +2805,7 @@
         <v>24</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2816,10 +2816,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -2879,15 +2879,15 @@
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="27">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -2928,35 +2928,35 @@
     </row>
     <row r="48" spans="1:11" ht="15">
       <c r="A48" s="24"/>
-      <c r="B48" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="30"/>
-      <c r="B49" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="B49" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="25"/>
-      <c r="B50" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="26"/>
-      <c r="B51" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
+      <c r="B51" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0" sort="0"/>
